--- a/Linux Skill Tree/Linux Skill Tree Language Translations.xlsx
+++ b/Linux Skill Tree/Linux Skill Tree Language Translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjpip\Dropbox\Projects\Skill Trees\Linux Skill Tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF5283C-3E9B-4BA5-8B91-042ECC25C5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4047E00-D8A5-476F-91DE-A423AEBE037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D823F07D-758E-4D99-B237-527D0B71741D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D823F07D-758E-4D99-B237-527D0B71741D}"/>
   </bookViews>
   <sheets>
     <sheet name="Translation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>Tile Number</t>
   </si>
@@ -256,13 +256,217 @@
   </si>
   <si>
     <t>Compile Linux kernel from source</t>
+  </si>
+  <si>
+    <t>Escolher uma distribuição Linux para começar usando, ex:  Mint, Ubuntu</t>
+  </si>
+  <si>
+    <t>Experimentar o “Windows Subsystem for Linux” (WSL)</t>
+  </si>
+  <si>
+    <t>Experimentar o Linux em uma máquina virtual</t>
+  </si>
+  <si>
+    <t>Usar o Snappy para baixar aplicativos</t>
+  </si>
+  <si>
+    <t>Executar o Linux em um computador antigo</t>
+  </si>
+  <si>
+    <t>Baixar ou fazer torrent de uma distribuição Linux</t>
+  </si>
+  <si>
+    <t>Encontrar software de código aberto alternativos para usar no Linux</t>
+  </si>
+  <si>
+    <t>Instalar o Linux em seu hardware</t>
+  </si>
+  <si>
+    <t>Explorar sua nova distribuição Linux</t>
+  </si>
+  <si>
+    <t>Fazer dual boot com o Linux em seu hardware</t>
+  </si>
+  <si>
+    <t>Usar o Wine para executar aplicativos do Windows no Linux</t>
+  </si>
+  <si>
+    <t>Escolher um navegador para usar, ex.: Chromium, Firefox</t>
+  </si>
+  <si>
+    <t>Instalar Java ou Python</t>
+  </si>
+  <si>
+    <t>Instalar o Steam no Linux</t>
+  </si>
+  <si>
+    <t>Instalar e explorar o Fedora Linux</t>
+  </si>
+  <si>
+    <t>Usar o Rufus para criar uma imagem de disco</t>
+  </si>
+  <si>
+    <t>Configurar uma impressora ou scanner</t>
+  </si>
+  <si>
+    <t>Usar o comando man/info para obter ajuda na linha de comando</t>
+  </si>
+  <si>
+    <t>Gerenciar as configurações Bluetooth</t>
+  </si>
+  <si>
+    <t>Gerenciar as configurações de áudio</t>
+  </si>
+  <si>
+    <t>Personalizar sua área de trabalho</t>
+  </si>
+  <si>
+    <t>Usar comandos de limpeza do sistema</t>
+  </si>
+  <si>
+    <t>Gerenciar diretórios com pwd, cd e ls na linha de comando</t>
+  </si>
+  <si>
+    <t>Instalar programas com a linha de comando</t>
+  </si>
+  <si>
+    <t>Usar o comando whatis para descobrir o que um comando faz</t>
+  </si>
+  <si>
+    <t>Usar o comando kill</t>
+  </si>
+  <si>
+    <t>Usar os comandos toilet ou figlet por diversão</t>
+  </si>
+  <si>
+    <t>Usar ferramentas básicas que vêm com o Linux, ex: Awk, grep</t>
+  </si>
+  <si>
+    <t>Usar um software de backup</t>
+  </si>
+  <si>
+    <t>Experimentar um gerenciador de janelas (WM) diferente</t>
+  </si>
+  <si>
+    <t>Gerenciar permissões de arquivo com a linha de comando</t>
+  </si>
+  <si>
+    <t>Otimizar configurações de gerenciamento de energia</t>
+  </si>
+  <si>
+    <t>Usar o comando mount para montar partições</t>
+  </si>
+  <si>
+    <t>Usar o Gparted para gerenciar partições de disco</t>
+  </si>
+  <si>
+    <t>Configurar o BusyBox em um telefone móvel</t>
+  </si>
+  <si>
+    <t>Ler um livro ou assistir tutoriais sobre Linux</t>
+  </si>
+  <si>
+    <t>Acidentalmente "brickar" sua máquina com rm -rf</t>
+  </si>
+  <si>
+    <t>Resolver um problema por conta própria</t>
+  </si>
+  <si>
+    <t>Configurar um Raspberry Pi ou similar</t>
+  </si>
+  <si>
+    <t>Usar ssh para acessar remotamente um computador</t>
+  </si>
+  <si>
+    <t>Instalar e explorar o Arch Linux</t>
+  </si>
+  <si>
+    <t>Instalar e explorar o Kali Linux</t>
+  </si>
+  <si>
+    <t>Configurar uma tarefa no cron</t>
+  </si>
+  <si>
+    <t>Usar o comando dd</t>
+  </si>
+  <si>
+    <t>Instalar um software a partir do código-fonte</t>
+  </si>
+  <si>
+    <t>Criar um projeto com um Raspberry Pi ou similar</t>
+  </si>
+  <si>
+    <t>Usar Vim e Emacs na linha de comando</t>
+  </si>
+  <si>
+    <t>Navegar na internet a partir da linha de comando</t>
+  </si>
+  <si>
+    <t>Configurar um servidor de jogos</t>
+  </si>
+  <si>
+    <t>Ensinar um amigo a usar o Linux</t>
+  </si>
+  <si>
+    <t>Executar Nix ou Guix</t>
+  </si>
+  <si>
+    <t>Usar o Linux como seu sistema operacional principal</t>
+  </si>
+  <si>
+    <t>Criar ou extrair um arquivo tar usando o terminal</t>
+  </si>
+  <si>
+    <t>Instalar o Linux em um Macintosh</t>
+  </si>
+  <si>
+    <t>Usar systemctl</t>
+  </si>
+  <si>
+    <t>Compilar o kernel Linux a partir do código-fonte</t>
+  </si>
+  <si>
+    <t>Instalar o Ubuntu Touch em um dispositivo móvel</t>
+  </si>
+  <si>
+    <t>Criar seu próprio serviço de sistema</t>
+  </si>
+  <si>
+    <t>Usar o Nmap</t>
+  </si>
+  <si>
+    <t>Criar instruções ou um guia de como fazer no Linux</t>
+  </si>
+  <si>
+    <t>Usar Tmux para abrir programas e salvar sessões</t>
+  </si>
+  <si>
+    <t>Aprender sobre o “filesystem hierarchy standard” (FHS)</t>
+  </si>
+  <si>
+    <t>Gerenciar permissões de arquivo estendidas</t>
+  </si>
+  <si>
+    <t>Executar o “Linux From Scratch” (LFS)</t>
+  </si>
+  <si>
+    <t>Contribuir para a documentação da sua distribuição Linux</t>
+  </si>
+  <si>
+    <t>Usar netcat para se comunicar com um servidor</t>
+  </si>
+  <si>
+    <t>Dar uma aula sobre Linux</t>
+  </si>
+  <si>
+    <t>Executar o Gentoo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +489,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,10 +514,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -318,9 +530,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AFE7ED28-B6D0-4967-B9A7-E61DFA7F707B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,14 +923,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7518992-54E2-4B02-9D21-DC46597EBAD3}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
     <col min="3" max="3" width="46.140625" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" customWidth="1"/>
@@ -755,6 +969,9 @@
       <c r="B3" t="s">
         <v>66</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -763,6 +980,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -771,6 +991,9 @@
       <c r="B5" t="s">
         <v>67</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -779,6 +1002,9 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -787,6 +1013,9 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -795,6 +1024,9 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -803,6 +1035,9 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -811,6 +1046,9 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -819,6 +1057,9 @@
       <c r="B11" t="s">
         <v>68</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -827,6 +1068,9 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -835,6 +1079,9 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -843,6 +1090,9 @@
       <c r="B14" t="s">
         <v>69</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -851,6 +1101,9 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -859,437 +1112,602 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>65</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
